--- a/data/trans_orig/IP12_R2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP12_R2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B1D755-CEB6-451A-8C9B-8EF6E5E3FD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1752331-6BEB-4C1A-BAF1-BC943DD9D4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{140E2392-80D4-497C-9AE4-BC1AD2F1DD41}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A515F14-CA78-498C-83C0-8DF56E4D23DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -101,106 +101,106 @@
     <t>11,0%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>8,36%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>89,0%</t>
   </si>
   <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>94,67%</t>
   </si>
   <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>91,64%</t>
   </si>
   <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>95,11%</t>
   </si>
   <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>94,88%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -209,64 +209,64 @@
     <t>6,31%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>94,16%</t>
   </si>
   <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>5,01%</t>
@@ -275,34 +275,34 @@
     <t>3,75%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
     <t>5,55%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
+    <t>6,72%</t>
+  </si>
+  <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
     <t>96,25%</t>
   </si>
   <si>
     <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>95,42%</t>
@@ -720,7 +720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DBFA04-89DA-4678-BE38-2A98B12F8388}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7319E7C-4FE9-4E9F-99D2-DAB5B0F991AF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1479,7 +1479,7 @@
         <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -1488,13 +1488,13 @@
         <v>76451</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,10 +1527,10 @@
         <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>1804</v>
@@ -1539,10 +1539,10 @@
         <v>1302132</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>89</v>
